--- a/docs/data/Attendance list.xlsx
+++ b/docs/data/Attendance list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://delwpvicgovau-my.sharepoint.com/personal/ben_fanson_deeca_vic_gov_au/Documents/Documents/records/workshops/2024 DADA workshop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latrobeuni-my.sharepoint.com/personal/kfanson_ltu_edu_au/Documents/Ben/ARI/workshops/2024_DADA_workshop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{0056DA89-E07B-4230-B37A-F7D080A21B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF23ABC7-2EE1-4458-B644-BF61FC0A90FD}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{0056DA89-E07B-4230-B37A-F7D080A21B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078B4B80-B21C-4F5A-818F-1E5FCB59BAF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4CA3BED-D183-42F2-B70C-B7158B353096}"/>
+    <workbookView xWindow="2304" yWindow="876" windowWidth="17280" windowHeight="10392" xr2:uid="{A4CA3BED-D183-42F2-B70C-B7158B353096}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Magdalena M Nystrand (DEECA)</t>
+  </si>
+  <si>
+    <t>ruce</t>
   </si>
 </sst>
 </file>
@@ -245,9 +248,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,9 +345,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +385,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,27 +643,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D6524F-3100-4640-A809-4A54E3351C8F}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -757,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -802,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -847,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -894,7 +896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -943,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -992,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1632,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>Accepted</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>Accepted</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2543,8 +2545,11 @@
         <f>IF(COUNTIF(Table5[[#This Row],[Day 1]:[Day 4]],"Accepted")&gt;0,"Accepted","")</f>
         <v>Accepted</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>Accepted</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>Accepted</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>Accepted</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>Accepted</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2692,12 +2697,12 @@
         <f>_xlfn.IFNA(INDEX(Table4[],MATCH(Table5[[#This Row],[Name]],Table4[Name],0),2),"")</f>
         <v/>
       </c>
-      <c r="G47" s="1" t="str">
-        <f>IF(COUNTIF(Table5[[#This Row],[Day 1]:[Day 4]],"Accepted")&gt;0,"Accepted","")</f>
-        <v>Accepted</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f>IF(COUNTIF(Table5[[#This Row],[Day 1]:[Day 4]],"Accepted")&gt;0,"Accepted","")</f>
+        <v>Accepted</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2717,7 +2722,7 @@
         <f>_xlfn.IFNA(INDEX(Table4[],MATCH(Table5[[#This Row],[Name]],Table4[Name],0),2),"")</f>
         <v>Accepted</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="G48" t="str">
         <f>IF(COUNTIF(Table5[[#This Row],[Day 1]:[Day 4]],"Accepted")&gt;0,"Accepted","")</f>
         <v>Accepted</v>
       </c>

--- a/docs/data/Attendance list.xlsx
+++ b/docs/data/Attendance list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latrobeuni-my.sharepoint.com/personal/kfanson_ltu_edu_au/Documents/Ben/ARI/workshops/2024_DADA_workshop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{0056DA89-E07B-4230-B37A-F7D080A21B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F7CAA89-D1C0-4425-A1C7-BDF768FAF8C2}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{0056DA89-E07B-4230-B37A-F7D080A21B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A08BA90C-D1F0-4E43-B4EA-A0F30B94E4F6}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="0" windowWidth="9216" windowHeight="12360" activeTab="1" xr2:uid="{A4CA3BED-D183-42F2-B70C-B7158B353096}"/>
+    <workbookView xWindow="12168" yWindow="168" windowWidth="10416" windowHeight="12132" activeTab="1" xr2:uid="{A4CA3BED-D183-42F2-B70C-B7158B353096}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -253,13 +253,28 @@
   </si>
   <si>
     <t>Johan Codinha</t>
+  </si>
+  <si>
+    <t>Nev</t>
+  </si>
+  <si>
+    <t>Sally Kenny</t>
+  </si>
+  <si>
+    <t>Pia</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +288,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -307,10 +336,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2812,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BA7687-81F3-4B4F-BC30-D1420EA02ADC}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,19 +2858,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2845,6 +2878,9 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2853,6 +2889,9 @@
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2869,6 +2908,9 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2885,6 +2927,9 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2911,21 +2956,21 @@
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>58</v>
@@ -2936,194 +2981,236 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>58</v>
@@ -3131,63 +3218,104 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="2">
-        <f>COUNTA(B2:B40)</f>
+      <c r="B45" s="2">
+        <f>COUNTA(B2:B44)</f>
+        <v>25</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:E45" si="0">COUNTA(C2:C44)</f>
+        <v>22</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" ref="C41:E41" si="0">COUNTA(C2:C40)</f>
-        <v>22</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
-    <sortCondition ref="A2:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
